--- a/Dissertation_MSc_SoftwareEngineering_2025/MoneyTransfer/money_evaluation_result.xlsx
+++ b/Dissertation_MSc_SoftwareEngineering_2025/MoneyTransfer/money_evaluation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Achilles/dissertation/24007552/Dissertation_MSc_SoftwareEngineering_2025/MoneyTransfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C1F22-2619-0847-AFE2-7449137C5588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1231188D-459B-5C48-9440-38F9958B7D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="35840" windowHeight="21100" xr2:uid="{9E75A19B-3C5C-0D40-84ED-FDC2ADFBCC01}"/>
+    <workbookView xWindow="-36180" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{9E75A19B-3C5C-0D40-84ED-FDC2ADFBCC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>clustering</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Leung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chinese Whispers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,30 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALCOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>α=0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +131,34 @@
   </si>
   <si>
     <t>low coupling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOO(max)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro Valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cromlech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Dimension Metrics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +166,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,10 +194,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
+      <sz val="16"/>
+      <color rgb="FF2A2B2E"/>
+      <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,21 +231,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,587 +602,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845A96F0-5B7D-5E4B-A9E6-3BAD9597F496}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="68">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="110">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="34">
-      <c r="A2" s="1" t="s">
+      <c r="I2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="66">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="4">
         <v>0.81599999999999995</v>
       </c>
-      <c r="H2" s="2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="21">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.84930000000000005</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="34">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.28275240384615391</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.4698912198912199</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22">
+      <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.8</v>
+      </c>
       <c r="F4" s="4">
         <v>0.133333333333333</v>
       </c>
       <c r="G4" s="4">
-        <v>0.93330000000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="34">
-      <c r="A5" s="1" t="s">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.15811965811965811</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.52055352055352055</v>
+      </c>
+      <c r="K4" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="66">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.2</v>
+      </c>
       <c r="F5" s="4">
         <v>0.133333333333333</v>
       </c>
       <c r="G5" s="4">
         <v>0.93330000000000002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>7</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="21">
-      <c r="A6" s="1" t="s">
+      <c r="I5" s="4">
+        <v>9.5238095238095247E-2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.63948848770277344</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="44">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>9.5238095238095247E-2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.63948848770277344</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.40493827160492901</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.78544061302681989</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.32307692307692298</v>
+      </c>
+      <c r="K7" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.24348958333333329</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.74254079254079253</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.17057291666666671</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.85504079254079257</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.24348958333333329</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.74254079254079253</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="22">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22">
+      <c r="A13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="K14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="22">
+      <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="K15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="22">
+      <c r="A16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="22">
+      <c r="A17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="21">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="21">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="21">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="21">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="21">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="21">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="21">
-      <c r="A13" s="1" t="s">
+      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.15833333333333341</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.93229166666666663</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="44">
+      <c r="A18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="21">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="21">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="21">
-      <c r="A16" s="1" t="s">
+      <c r="C18" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.24867724867724869</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="K18" s="5">
         <v>7</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="34">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
